--- a/output/fit_clients/fit_round_91.xlsx
+++ b/output/fit_clients/fit_round_91.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9066903591.255718</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003503905885997893</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>19</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2.738790597199227</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9520156267272293</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-2.738790597199227</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4786829471.053338</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.00534920034800324</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.333975264018892</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9115759298146735</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.333975264018892</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5931181202.971115</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003892885340159157</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.09633897717742118</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.501034917032425</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.0403222091776556</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-2.501034917032425</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3770143026.796128</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003809454907031855</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>22</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7532357758439717</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3040632100546479</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.379110303023579</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.029847149485559</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.379110303023579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5469116524.23075</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.00278719567781293</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>24</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.255611123966904</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8836203276682643</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.255611123966904</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>8927770550.493641</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001109686275393253</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324718</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.446341720097692</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9302731827701216</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-2.446341720097692</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5884253208.39824</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.002605279166097088</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.169686955060717</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9710496220612107</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.169686955060717</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6037881488.649536</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005421025964903328</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2.750756161493237</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9093442822348586</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-2.750756161493237</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3493744043.01583</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004182567463818551</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>20</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.1738417006913003</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.330538140040578</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.3607212211022163</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-2.330538140040578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3344969121.072372</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.0009116378076803377</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>21</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.252313998271144</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7917445703315246</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.252313998271144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7847626613.850745</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001787266172394508</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.636132028557877</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9826954084903886</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-2.636132028557877</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>4525175449.439713</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003655820345935622</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>22</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.15166192554077</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.226709018509701</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.025647522866147</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.226709018509701</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>9155405065.734348</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002888154597627227</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>17</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272497</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.534732594582455</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8906929289408926</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-2.534732594582455</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5694861950.646738</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.00351765299294626</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>13</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.143310517626941</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.003777727899216</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.143310517626941</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>6960033859.290098</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004722514102072571</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>14</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2.85351881045478</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9271063862331668</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-2.85351881045478</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4554740759.361313</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003164235396841434</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.615543664913552</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9434346274956147</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-2.615543664913552</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5516833595.079341</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001213821088312923</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.568701704964368</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9253310081235336</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-2.568701704964368</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3104426017.093896</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002169383178157832</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>18</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.483466350528828</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.9190442680333808</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.483466350528828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5687481454.357693</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001157188202096713</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.633503396634822</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8235638718400345</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-2.633503396634822</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>7280341303.636861</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.004433962344479027</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
         <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.709695515845213</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.881317894567173</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.709695515845213</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5734070838.051551</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.004795780006747592</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>21</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6084997667028718</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.410982357565507</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8593296564854297</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-2.410982357565507</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7572370284.083436</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001843149275960385</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>24</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.105315811725781</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.8670136817270162</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.105315811725781</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6302626048.574268</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003814683786847329</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>16</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2.723476206791148</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9945545604152878</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-2.723476206791148</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4828489709.393846</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002961465730815882</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>14</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167455</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2.844854621668734</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.94265497959808</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-2.844854621668734</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5063715115.516426</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001171147675597241</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>21</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.138826741674344</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.826394094960326</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.138826741674344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6613205824.777181</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003927890238605055</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>17</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.567918303152342</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9449919935910855</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-2.567918303152342</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7702953949.130677</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004116831454556915</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.2101110636836699</v>
-      </c>
-      <c r="L28" t="n">
-        <v>2.723117890002212</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.9211608113708001</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-2.723117890002212</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6577358250.979717</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.00112557556522086</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>16</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.721742059771924</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9830037450940781</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-2.721742059771924</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7072019822.57129</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.00396386661645459</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>22</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.738809656710921</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090875</v>
-      </c>
-      <c r="L30" t="n">
-        <v>2.128500192749839</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.052766493007532</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-2.128500192749839</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6115157000.160909</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002955729015774513</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>20</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.432928349707979</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9657759744894562</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.432928349707979</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4104601623.503078</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001459351289121163</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>20</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590734</v>
-      </c>
-      <c r="L32" t="n">
-        <v>2.646721131434639</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9228957166406863</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-2.646721131434639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>4899714486.191185</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002395389343352087</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>13</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.596790106564127</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278147</v>
-      </c>
-      <c r="L33" t="n">
-        <v>2.976791319361821</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.9049849781147471</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-2.976791319361821</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>7798717314.88288</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.00386317508653495</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>18</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967668</v>
-      </c>
-      <c r="L34" t="n">
-        <v>2.624457691061988</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7525824019490536</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-2.624457691061988</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>6857173346.64888</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002155105734472851</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>16</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756602</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2.610436834084977</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9386993491882276</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-2.610436834084977</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>6545414467.885904</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002636289650254058</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>17</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>2.540471787493269</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.017985304897524</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-2.540471787493269</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>6271202373.858548</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004321775459828077</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>21</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>2.480535685330251</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.007561634742572</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-2.480535685330251</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4733319737.219242</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004081953987009475</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>17</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.462045363846271</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9159796478159503</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.462045363846271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>5074819857.897765</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002743526330409424</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>14</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.8786082329886148</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>2.979013433806244</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.149805527517703</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-2.979013433806244</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>5691963154.966172</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004247309682760669</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>20</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.369998112951891</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2.549944825168613</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.7538758252440659</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-2.549944825168613</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5650622652.227826</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001415761994783712</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>13</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2.903696886095871</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9418746863380097</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-2.903696886095871</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>6755180297.715396</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005120633773572239</v>
       </c>
       <c r="G42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>2.375141781797621</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9813294992353876</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-2.375141781797621</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5348372347.944924</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003208565597651666</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>18</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>2.597005001920251</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1.305844924580005</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-2.597005001920251</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5793822206.687161</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001676897623333711</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>22</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900506</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.378510698758982</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9323162312062138</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.378510698758982</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4619640383.051058</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.00155651815149404</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.2964197607433681</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.826676993987032</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.6419103111813754</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-2.826676993987032</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>10789470069.11633</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.005188315754246969</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>21</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.7450875878226016</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2.332308921052077</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9877938669790697</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-2.332308921052077</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8603689846.648872</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.00289629238656142</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>20</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.7018124057461439</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2.276792017249988</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.032154548213005</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-2.276792017249988</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5474179876.479149</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002421754644080624</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>3.040959039546906</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9585837280746917</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-3.040959039546906</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3780983716.819866</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003746597962756597</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>22</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>2.390472735595249</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8677124629182288</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-2.390472735595249</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>7679728170.563244</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003219080870756048</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>10</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>3.333985740707117</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.025143733327998</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-3.333985740707117</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5159328625.707429</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004716226726299435</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>21</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656325</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.374956049590554</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9513787676478052</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.374956049590554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6911806852.278945</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001559241636681242</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6666918183268385</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.115935051342573</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.348800211398663</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9545299454051143</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.348800211398663</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>7078721839.132455</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002272862819119739</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>20</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.8707774493858137</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2.374685321396387</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.200263560856065</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-2.374685321396387</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>6117137673.29773</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004139520114038342</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>21</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.227206098045533</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8462579541412175</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.227206098045533</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>6647153048.269848</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004198498778427259</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>20</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.350721801002519</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.905862992857842</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.350721801002519</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6027586929.772876</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002091659395119188</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>19</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>2.451881508212137</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.902753626654242</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-2.451881508212137</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6297842870.858115</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003079191037591586</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>18</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>2.434849441716827</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8287472919929177</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-2.434849441716827</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6742619148.310448</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.00217938268281554</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.03519841500184499</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.268063575057935</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8395863399099096</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.268063575057935</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5667781063.116951</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004115535060922587</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>19</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.378499230810506</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8876759172514908</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.378499230810506</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4776548571.29874</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003772623962421684</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>20</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677436</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.23770954719234</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8267607254739352</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.23770954719234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4718905730.075496</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005844071659870943</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>26</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.763934701445573</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9242995565190159</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-2.763934701445573</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4321736246.492777</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003595005348079167</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>19</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>2.997447081466778</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8699539022867342</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-2.997447081466778</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6069814771.34586</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004903252331808245</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>25</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.1455189410553129</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.092085658502766</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.8891353667781972</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.092085658502766</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3331913235.810724</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003934039806670886</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>16</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930866</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2.575973707002403</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.8956820428347846</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-2.575973707002403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>7289959199.946373</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004869926067631993</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>24</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2.620603677992958</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.9784142380743467</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-2.620603677992958</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4841782740.255718</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002936429316350167</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>18</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>2.513655877335455</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9065318283607859</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-2.513655877335455</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6196968373.66661</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004892194034665708</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>2.784392876013039</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8843565971266032</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-2.784392876013039</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>5860850252.092851</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.003130055002776937</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>21</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.173942322111689</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7275026275974031</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.173942322111689</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5474453205.925413</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009710808085396704</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>12</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.06580874027357</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9905454293763069</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.06580874027357</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6705852622.388166</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002794058948876882</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>14</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>3.601209191851988</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.8986721768552333</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-3.601209191851988</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3518680000.795866</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003789764396527447</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>15</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>2.649419316641813</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8057203558514666</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-2.649419316641813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7415921310.819116</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002352925040948041</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>17</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>2.540774377017423</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.058977797543408</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-2.540774377017423</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>6135006851.665361</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001237558986069609</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>15</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>2.677693670007038</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9598008326325561</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-2.677693670007038</v>
+        <v>21</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>6407040636.087873</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004717181729763461</v>
       </c>
       <c r="G74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>19</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701587</v>
-      </c>
-      <c r="L74" t="n">
-        <v>2.352326298826248</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8675636152517398</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-2.352326298826248</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>8118355748.732362</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003879037359127938</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>18</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.56046733724158</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8762469989066597</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.56046733724158</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5303351260.449001</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002115279074380562</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.448861416817457</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9273849443376906</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.448861416817457</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7307046995.957294</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005410314426428492</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>12</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230955</v>
-      </c>
-      <c r="L77" t="n">
-        <v>3.032544617707729</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.995772645560427</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-3.032544617707729</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6746697975.495016</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004739879161293993</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
         <v>19</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.9001000604186115</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.452834143902978</v>
-      </c>
-      <c r="M78" t="n">
-        <v>1.233351571246491</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.452834143902978</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8254731924.858278</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002344967697237018</v>
       </c>
       <c r="G79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>15</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>2.619469098804705</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9532880684957746</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-2.619469098804705</v>
+        <v>21</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6717270431.503662</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.00221843791448162</v>
       </c>
       <c r="G80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>21</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330154</v>
-      </c>
-      <c r="L80" t="n">
-        <v>2.604408904757937</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9676106146045604</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-2.604408904757937</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7666609389.048147</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003698178533730358</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>11</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289813</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.044041969268508</v>
-      </c>
-      <c r="M81" t="n">
-        <v>-0.3476767476825577</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.044041969268508</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6855314792.557897</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004188192880553884</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>20</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>2.438744773534476</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.8954878651610817</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-2.438744773534476</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10623469282.68861</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003036412538804224</v>
       </c>
       <c r="G83" t="b">
         <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>23</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.142858397104594</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8369015780616793</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.142858397104594</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7857644287.2246</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005315913112428751</v>
       </c>
       <c r="G84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>21</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.2615870065370048</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027591</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.280440156027681</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.5590749248062862</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.280440156027681</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4182754766.52494</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002941725015807818</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>22</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.198954155527308</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9097702451817601</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.198954155527308</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6793101249.018225</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001952250319336137</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>21</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.3240556445164227</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>2.570813542655672</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.6877258972141977</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-2.570813542655672</v>
+        <v>27</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4320804835.604049</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001298430166345482</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>25</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.114955195523875</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9695749903358283</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.114955195523875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7915353886.552498</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004510666898131894</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463786</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.549909439855695</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8589949098396051</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.549909439855695</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6856277963.269258</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003912340239515183</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>14</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>2.890042209627811</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9665832773790279</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-2.890042209627811</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6845158406.517571</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003191304406598987</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>16</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.545961888084651</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9529701173360648</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.545961888084651</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6399559717.346248</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003691887579809891</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>13</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719718</v>
-      </c>
-      <c r="L91" t="n">
-        <v>2.749984156091204</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8217764169204929</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-2.749984156091204</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4910453583.333595</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.002883941166589505</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>14</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>2.858121483165061</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.05787480407528</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-2.858121483165061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>6721420397.970027</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001315098998411607</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>20</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.139219523829676</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.376914526634617</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.2257278317116452</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.376914526634617</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>4898414041.102797</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001483800721805122</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>15</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023206</v>
-      </c>
-      <c r="L94" t="n">
-        <v>2.749063488520862</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.010392801146216</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-2.749063488520862</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5486859127.726307</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002098868528268531</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>15</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.855561451965775</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>2.630320224215134</v>
-      </c>
-      <c r="M95" t="n">
-        <v>1.194872682918174</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-2.630320224215134</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8819108538.529835</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002920395013411246</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>24</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693104</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.220853795648751</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9181951684676242</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.220853795648751</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6154214559.093529</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.006055373912023013</v>
       </c>
       <c r="G97" t="b">
         <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>16</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244965</v>
-      </c>
-      <c r="L97" t="n">
-        <v>2.757641464433813</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9014595031640704</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-2.757641464433813</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>9184876502.521149</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004285560551580157</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>17</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>2.360558877455205</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8658669960884313</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-2.360558877455205</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2943789429.587604</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004606890255880952</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>22</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.306984765158812</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8936496740061761</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.306984765158812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>3881789597.881596</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002661120209758331</v>
       </c>
       <c r="G100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>2.62812183892054</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8385561666171419</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-2.62812183892054</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7702923011.223364</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001688441220579842</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>20</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5488717519461689</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480224</v>
-      </c>
-      <c r="L101" t="n">
-        <v>2.644323750423588</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8885038097076501</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-2.644323750423588</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_91.xlsx
+++ b/output/fit_clients/fit_round_91.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -483,19 +493,25 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9066903591.255718</v>
+        <v>2323383525.336757</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003503905885997893</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>22</v>
+        <v>0.0828514422593785</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04017408177899907</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1161691801.722573</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4786829471.053338</v>
+        <v>1658479494.939114</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00534920034800324</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
+        <v>0.161504693439627</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03173763324628497</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>829239734.5653502</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5931181202.971115</v>
+        <v>4897374608.555902</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003892885340159157</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>19</v>
+        <v>0.163940856470966</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03376070065131748</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2448687381.949807</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3770143026.796128</v>
+        <v>3173857066.48996</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003809454907031855</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09058431768586653</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04290908897345871</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1586928591.547577</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5469116524.23075</v>
+        <v>2277738453.795651</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00278719567781293</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>20</v>
+        <v>0.1400371248162108</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03630322694314052</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1138869226.344167</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>8927770550.493641</v>
+        <v>2977534532.651663</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001109686275393253</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>29</v>
+        <v>0.07321071845220629</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04777014924245167</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1488767233.341873</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5884253208.39824</v>
+        <v>2705171014.039354</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002605279166097088</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>24</v>
+        <v>0.1594560146853626</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02255651424186393</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>30</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1352585534.32105</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6037881488.649536</v>
+        <v>1611249902.778088</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005421025964903328</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>28</v>
+        <v>0.145565497549352</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.03412220350375356</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>805625031.8509825</v>
       </c>
     </row>
     <row r="10">
@@ -707,19 +765,25 @@
         <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3493744043.01583</v>
+        <v>5338336014.951072</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004182567463818551</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2098266802152386</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03964196091528512</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>38</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2669168132.896653</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3344969121.072372</v>
+        <v>3943117062.153544</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0009116378076803377</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1847251744781301</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03873525220678421</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>38</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1971558539.710674</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7847626613.850745</v>
+        <v>2947403190.100746</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001787266172394508</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>26</v>
+        <v>0.1643036587516308</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03431663834478967</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>31</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1473701608.170837</v>
       </c>
     </row>
     <row r="13">
@@ -791,19 +867,25 @@
         <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4525175449.439713</v>
+        <v>3720368883.509446</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003655820345935622</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>19</v>
+        <v>0.09767355735331756</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02358999230325549</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1860184510.803545</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>9155405065.734348</v>
+        <v>2769982769.232058</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002888154597627227</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>21</v>
+        <v>0.1664389345963541</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03239107539020369</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1384991435.609713</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5694861950.646738</v>
+        <v>1304867374.865523</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00351765299294626</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28</v>
+        <v>0.07131924745373461</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.04375712026362762</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>652433728.6286833</v>
       </c>
     </row>
     <row r="16">
@@ -875,19 +969,25 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>6960033859.290098</v>
+        <v>1827219458.620526</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004722514102072571</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>29</v>
+        <v>0.07124359480994781</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04125121812228959</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>913609820.1591066</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4554740759.361313</v>
+        <v>5102928105.029155</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003164235396841434</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>19</v>
+        <v>0.1208148051764772</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04529767686371862</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>27</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2551464032.530159</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5516833595.079341</v>
+        <v>2742587486.524711</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001213821088312923</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>26</v>
+        <v>0.12627102484725</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03365132659757947</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>30</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1371293792.074519</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3104426017.093896</v>
+        <v>1011394701.315288</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002169383178157832</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1881034244008192</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02579418601270723</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>505697382.5892295</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5687481454.357693</v>
+        <v>1732146807.211174</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001157188202096713</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
+        <v>0.1103053863422399</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02043363647666559</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>12</v>
+      </c>
+      <c r="J20" t="n">
+        <v>866073458.429341</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>7280341303.636861</v>
+        <v>1745009554.430551</v>
       </c>
       <c r="F21" t="n">
-        <v>0.004433962344479027</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>17</v>
+        <v>0.09491798631224534</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02925675233784768</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>9</v>
+      </c>
+      <c r="J21" t="n">
+        <v>872504837.4368448</v>
       </c>
     </row>
     <row r="22">
@@ -1043,19 +1173,25 @@
         <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>5734070838.051551</v>
+        <v>3812589781.601315</v>
       </c>
       <c r="F22" t="n">
-        <v>0.004795780006747592</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
+        <v>0.1323118183333585</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05288706386580646</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>25</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1906294903.595523</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7572370284.083436</v>
+        <v>1301301804.369449</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001843149275960385</v>
-      </c>
-      <c r="G23" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" t="n">
-        <v>16</v>
+        <v>0.1832098259754797</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.03548114008307435</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>650650921.5249915</v>
       </c>
     </row>
     <row r="24">
@@ -1099,19 +1241,25 @@
         <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6302626048.574268</v>
+        <v>4149582476.417667</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003814683786847329</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>23</v>
+        <v>0.1045149013887251</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03658620900883547</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2074791196.065472</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4828489709.393846</v>
+        <v>1058610770.780501</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002961465730815882</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>20</v>
+        <v>0.09391152793253398</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02402600546858692</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>529305435.8149613</v>
       </c>
     </row>
     <row r="26">
@@ -1155,19 +1309,25 @@
         <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5063715115.516426</v>
+        <v>947533087.6448696</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001171147675597241</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.08259287360329105</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.032718150250006</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>473766503.0129533</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6613205824.777181</v>
+        <v>3035151152.186772</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003927890238605055</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>25</v>
+        <v>0.09963116638586703</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02518654574910984</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1517575634.112289</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7702953949.130677</v>
+        <v>3361400304.767405</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004116831454556915</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>23</v>
+        <v>0.1237398176373598</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04841006442880974</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>29</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1680700194.904767</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>585</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4768378360.216546</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1328379613562116</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03322624680988907</v>
+      </c>
+      <c r="H29" t="b">
         <v>1</v>
       </c>
-      <c r="D29" t="n">
-        <v>504</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6577358250.979717</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.00112557556522086</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>23</v>
+      <c r="I29" t="n">
+        <v>42</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2384189143.638196</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7072019822.57129</v>
+        <v>2177650456.345721</v>
       </c>
       <c r="F30" t="n">
-        <v>0.00396386661645459</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>29</v>
+        <v>0.09606491059969732</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03145667348571014</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1088825285.790936</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6115157000.160909</v>
+        <v>1115026250.890479</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002955729015774513</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>18</v>
+        <v>0.09730738470805893</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03591593573290752</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>557513096.8377211</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4104601623.503078</v>
+        <v>1269585672.631064</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001459351289121163</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09801683217955001</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03345356516884619</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>634792856.8462158</v>
       </c>
     </row>
     <row r="33">
@@ -1351,19 +1547,25 @@
         <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>4899714486.191185</v>
+        <v>2791077693.280561</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002395389343352087</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>20</v>
+        <v>0.1402994003272884</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04230942835869885</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1395538859.976205</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>7798717314.88288</v>
+        <v>1174117623.623106</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00386317508653495</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>28</v>
+        <v>0.09080303974854997</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02719835449629117</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>587058821.0094866</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>6857173346.64888</v>
+        <v>876346342.8882264</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002155105734472851</v>
-      </c>
-      <c r="G35" t="b">
-        <v>1</v>
-      </c>
-      <c r="H35" t="n">
-        <v>23</v>
+        <v>0.08059572242570524</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.04076586582416964</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>438173217.0635168</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>442</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2646765472.104278</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1540975715693594</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02310918463155297</v>
+      </c>
+      <c r="H36" t="b">
         <v>1</v>
       </c>
-      <c r="D36" t="n">
-        <v>538</v>
-      </c>
-      <c r="E36" t="n">
-        <v>6545414467.885904</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.002636289650254058</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>25</v>
+      <c r="I36" t="n">
+        <v>23</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1323382746.182338</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>6271202373.858548</v>
+        <v>2495762567.492951</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004321775459828077</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.06925460990398491</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03657126408815449</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>23</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1247881379.168642</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4733319737.219242</v>
+        <v>1562387221.658816</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004081953987009475</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08559407286339249</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.03102397300318371</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>781193651.1960212</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>5074819857.897765</v>
+        <v>1969372574.521492</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002743526330409424</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>13</v>
+        <v>0.1484191334074451</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02547204843470006</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>984686286.3814887</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>5691963154.966172</v>
+        <v>1312098302.872039</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004247309682760669</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>26</v>
+        <v>0.1518262191307922</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04610082232733737</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>656049164.615643</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5650622652.227826</v>
+        <v>2609428528.003731</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001415761994783712</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>26</v>
+        <v>0.1047980065431981</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04192807139575789</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1304714278.480125</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>6755180297.715396</v>
+        <v>4036083252.451491</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005120633773572239</v>
-      </c>
-      <c r="G42" t="b">
-        <v>1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>21</v>
+        <v>0.07891727418703062</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03745183260526128</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>32</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2018041657.918473</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5348372347.944924</v>
+        <v>2539229627.850368</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003208565597651666</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>21</v>
+        <v>0.1861461785883742</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01955279260497483</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>31</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1269614858.578445</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5793822206.687161</v>
+        <v>2236946246.455905</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001676897623333711</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>24</v>
+        <v>0.07503809060188051</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03574277593599204</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1118473276.775153</v>
       </c>
     </row>
     <row r="45">
@@ -1687,19 +1955,25 @@
         <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4619640383.051058</v>
+        <v>2446745837.434013</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00155651815149404</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
+        <v>0.1511896538588314</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03665929367906511</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1223372954.542797</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>10789470069.11633</v>
+        <v>4923796337.370521</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005188315754246969</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>15</v>
+        <v>0.1123116742735146</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.04323625567842381</v>
+      </c>
+      <c r="H46" t="b">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>32</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2461898191.029805</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8603689846.648872</v>
+        <v>3595372944.733522</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00289629238656142</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>12</v>
+        <v>0.1775482516073065</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0469848401650579</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>24</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1797686448.53495</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5474179876.479149</v>
+        <v>4231951277.669622</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002421754644080624</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>16</v>
+        <v>0.08433254962708392</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03348538732452156</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>31</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2115975659.672676</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3780983716.819866</v>
+        <v>1762359184.959332</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003746597962756597</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
+        <v>0.148332080601613</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03382044413395584</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>881179583.6288347</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>7679728170.563244</v>
+        <v>3277443034.472614</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003219080870756048</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>25</v>
+        <v>0.1640377545541756</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03556221581048707</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>31</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1638721557.27299</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5159328625.707429</v>
+        <v>1502525488.730763</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004716226726299435</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1445791240971139</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03406313493806162</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>751262746.8182671</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6911806852.278945</v>
+        <v>3251146856.348031</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001559241636681242</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>22</v>
+        <v>0.1013007871187494</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04657138380241815</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>38</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1625573528.653109</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>7078721839.132455</v>
+        <v>2497298633.574372</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002272862819119739</v>
-      </c>
-      <c r="G53" t="b">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>17</v>
+        <v>0.1367286002961846</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03289681900775937</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>26</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1248649383.825889</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>6117137673.29773</v>
+        <v>3850315105.530497</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004139520114038342</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>22</v>
+        <v>0.1252967936488436</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03770600794309947</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>30</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1925157605.008364</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>6647153048.269848</v>
+        <v>4214469025.199241</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004198498778427259</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>29</v>
+        <v>0.1916782372671262</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02082361920841855</v>
+      </c>
+      <c r="H55" t="b">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>25</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2107234496.890363</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6027586929.772876</v>
+        <v>1207149332.276143</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002091659395119188</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>13</v>
+        <v>0.1455580984492304</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04593719452292924</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>603574751.6721497</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6297842870.858115</v>
+        <v>3533245685.39609</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003079191037591586</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>21</v>
+        <v>0.1311026942784831</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01959906626668446</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>29</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1766622891.806274</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6742619148.310448</v>
+        <v>1498231454.393849</v>
       </c>
       <c r="F58" t="n">
-        <v>0.00217938268281554</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>20</v>
+        <v>0.1909841241954661</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03309857349208147</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>749115758.4181404</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5667781063.116951</v>
+        <v>3750083422.604513</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004115535060922587</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>11</v>
+        <v>0.09125885440266746</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04226029064096776</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>26</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1875041699.208931</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4776548571.29874</v>
+        <v>2498772278.747907</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003772623962421684</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
+        <v>0.1418457104851015</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02760362865616121</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>29</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1249386157.084045</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4718905730.075496</v>
+        <v>2057766024.267329</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005844071659870943</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>20</v>
+        <v>0.1647618815659997</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02708828151034286</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>31</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1028883081.370942</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4321736246.492777</v>
+        <v>1417461657.388213</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003595005348079167</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>15</v>
+        <v>0.1454719730292749</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.041308596785999</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>708730799.3139344</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6069814771.34586</v>
+        <v>5271912914.845145</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004903252331808245</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>23</v>
+        <v>0.09131160786244401</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03693838923929548</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>26</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2635956462.981277</v>
       </c>
     </row>
     <row r="64">
@@ -2219,19 +2601,25 @@
         <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3331913235.810724</v>
+        <v>4658260928.597581</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003934039806670886</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1306749253844752</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02155844736023017</v>
+      </c>
+      <c r="H64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>28</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2329130546.383101</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>7289959199.946373</v>
+        <v>4255949219.520913</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004869926067631993</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>23</v>
+        <v>0.109132288783641</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02658251949813137</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>33</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2127974612.973898</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
+        <v>4</v>
+      </c>
+      <c r="D66" t="n">
+        <v>475</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3942803424.177192</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1059307707645018</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.03607981451046818</v>
+      </c>
+      <c r="H66" t="b">
         <v>1</v>
       </c>
-      <c r="D66" t="n">
-        <v>472</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4841782740.255718</v>
-      </c>
-      <c r="F66" t="n">
-        <v>0.002936429316350167</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>20</v>
+      <c r="I66" t="n">
+        <v>26</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1971401682.518305</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6196968373.66661</v>
+        <v>3411404891.098187</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004892194034665708</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>19</v>
+        <v>0.07588680096322507</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04267416521716837</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>29</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1705702428.946442</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5860850252.092851</v>
+        <v>6003991068.830902</v>
       </c>
       <c r="F68" t="n">
-        <v>0.003130055002776937</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>19</v>
+        <v>0.09712936378075636</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03955080118253957</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>29</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3001995651.557886</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5474453205.925413</v>
+        <v>1736152420.734531</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009710808085396704</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>21</v>
+        <v>0.1233406471538312</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05842649761772236</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>868076181.1216226</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6705852622.388166</v>
+        <v>3677727783.530174</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002794058948876882</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>23</v>
+        <v>0.0977642903752375</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03825314424106563</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>26</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1838863912.744566</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3518680000.795866</v>
+        <v>4614984624.378922</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003789764396527447</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1638372652490954</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02903745413209164</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>33</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2307492389.066</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7415921310.819116</v>
+        <v>2107020189.758719</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002352925040948041</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>19</v>
+        <v>0.06822867420452412</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03475212405221459</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1053510023.890094</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>6135006851.665361</v>
+        <v>3272084869.771567</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001237558986069609</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>21</v>
+        <v>0.07392247580151344</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04643804998210774</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>35</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1636042405.883246</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>6407040636.087873</v>
+        <v>3596084561.682998</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004717181729763461</v>
-      </c>
-      <c r="G74" t="b">
-        <v>1</v>
-      </c>
-      <c r="H74" t="n">
-        <v>20</v>
+        <v>0.1366477987318256</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02629914794711042</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>31</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1798042294.605118</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>8118355748.732362</v>
+        <v>2050799992.852979</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003879037359127938</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>17</v>
+        <v>0.1460297333343692</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03040877532568476</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1025399955.746377</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5303351260.449001</v>
+        <v>5115983292.881506</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002115279074380562</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>19</v>
+        <v>0.1241521910049589</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02561363071906319</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>20</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2557991677.898023</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7307046995.957294</v>
+        <v>1895977028.01971</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005410314426428492</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>30</v>
+        <v>0.1813856167401479</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02144158651253746</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>947988560.0686138</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
+        <v>3</v>
+      </c>
+      <c r="D78" t="n">
+        <v>519</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3340068562.672519</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.09569316779654048</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.03513090930934371</v>
+      </c>
+      <c r="H78" t="b">
         <v>1</v>
       </c>
-      <c r="D78" t="n">
-        <v>454</v>
-      </c>
-      <c r="E78" t="n">
-        <v>6746697975.495016</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0.004739879161293993</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>19</v>
+      <c r="I78" t="n">
+        <v>32</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1670034294.227993</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8254731924.858278</v>
+        <v>1736194923.677702</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002344967697237018</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>21</v>
+        <v>0.1301201489811813</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02449355230915372</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>868097537.2544608</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6717270431.503662</v>
+        <v>3460128262.113986</v>
       </c>
       <c r="F80" t="n">
-        <v>0.00221843791448162</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>29</v>
+        <v>0.08377309136097505</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03326248740102643</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>19</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1730064103.613153</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7666609389.048147</v>
+        <v>3822205085.335771</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003698178533730358</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>17</v>
+        <v>0.1058817950773153</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02700194327158834</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1911102499.187733</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6855314792.557897</v>
+        <v>4884829081.312721</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004188192880553884</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>16</v>
+        <v>0.1515846276257878</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0226018998594508</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>32</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2442414530.911349</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10623469282.68861</v>
+        <v>2432269971.099792</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003036412538804224</v>
-      </c>
-      <c r="G83" t="b">
-        <v>1</v>
-      </c>
-      <c r="H83" t="n">
-        <v>26</v>
+        <v>0.1387347895648038</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.02853029839113121</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1216135024.625975</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7857644287.2246</v>
+        <v>1770729881.587537</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005315913112428751</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>25</v>
+        <v>0.1080930722646183</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03991952311726189</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>885364979.3176241</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4182754766.52494</v>
+        <v>3513277825.032007</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002941725015807818</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
+        <v>0.1659965472044617</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03446157522236963</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>34</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1756639029.245592</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6793101249.018225</v>
+        <v>2344110648.23622</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001952250319336137</v>
-      </c>
-      <c r="G86" t="b">
-        <v>1</v>
-      </c>
-      <c r="H86" t="n">
-        <v>27</v>
+        <v>0.1710997446099378</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02711976817223316</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>8</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1172055399.493293</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4320804835.604049</v>
+        <v>1379071949.107419</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001298430166345482</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.136280898537191</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.02915565423000917</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>689536075.965934</v>
       </c>
     </row>
     <row r="88">
@@ -2891,19 +3417,25 @@
         <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7915353886.552498</v>
+        <v>2389210809.303912</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004510666898131894</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>22</v>
+        <v>0.1576282259676645</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03121793496753858</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>36</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1194605374.673644</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6856277963.269258</v>
+        <v>2375386721.185757</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003912340239515183</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>20</v>
+        <v>0.147438708322913</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03365571605216056</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>30</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1187693444.414937</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6845158406.517571</v>
+        <v>2109077022.120791</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003191304406598987</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>17</v>
+        <v>0.105963219086004</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03710857960850655</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1054538601.172101</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6399559717.346248</v>
+        <v>1866044654.786393</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003691887579809891</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>26</v>
+        <v>0.1659029274599316</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.03821073751805984</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>933022317.4534007</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4910453583.333595</v>
+        <v>2630009313.758653</v>
       </c>
       <c r="F92" t="n">
-        <v>0.002883941166589505</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08989280911393566</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.04319513994719849</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>18</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1315004650.566236</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>6721420397.970027</v>
+        <v>4609952684.53157</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001315098998411607</v>
-      </c>
-      <c r="G93" t="b">
+        <v>0.140059231162482</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.0505809442304195</v>
+      </c>
+      <c r="H93" t="b">
         <v>1</v>
       </c>
-      <c r="H93" t="n">
-        <v>30</v>
+      <c r="I93" t="n">
+        <v>27</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2304976303.383661</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>4898414041.102797</v>
+        <v>1860977367.149591</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001483800721805122</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>30</v>
+        <v>0.1615466505708436</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02968586120723991</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>930488663.7301127</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5486859127.726307</v>
+        <v>2796102437.26852</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002098868528268531</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>23</v>
+        <v>0.09045466026773513</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05241261960227725</v>
+      </c>
+      <c r="H95" t="b">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>21</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1398051233.123735</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8819108538.529835</v>
+        <v>2172741933.241137</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002920395013411246</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>24</v>
+        <v>0.1163946062066041</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03287372902703468</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1086370935.071424</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6154214559.093529</v>
+        <v>3926091833.219147</v>
       </c>
       <c r="F97" t="n">
-        <v>0.006055373912023013</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>23</v>
+        <v>0.1756194490561785</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02352534049523846</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>29</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1963045966.970911</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>9184876502.521149</v>
+        <v>3205775938.582454</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004285560551580157</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>34</v>
+        <v>0.1205054308511739</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03034508665812697</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>24</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1602887967.876567</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2943789429.587604</v>
+        <v>2698450896.242242</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004606890255880952</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.09313100826415281</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03050238962856396</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>29</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1349225412.136682</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3881789597.881596</v>
+        <v>3374139868.304048</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002661120209758331</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>8</v>
+        <v>0.1427151833864134</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01857835352862706</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>28</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1687069954.802476</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7702923011.223364</v>
+        <v>2240960486.426827</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001688441220579842</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>29</v>
+        <v>0.2163341104937721</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03767647696516607</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>39</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1120480231.865631</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_91.xlsx
+++ b/output/fit_clients/fit_round_91.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2323383525.336757</v>
+        <v>2147394281.317618</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0828514422593785</v>
+        <v>0.08637935165129577</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04017408177899907</v>
+        <v>0.03107492962986761</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1161691801.722573</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1658479494.939114</v>
+        <v>1602966054.780038</v>
       </c>
       <c r="F3" t="n">
-        <v>0.161504693439627</v>
+        <v>0.1594503877702857</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03173763324628497</v>
+        <v>0.03696772537026975</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>829239734.5653502</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4897374608.555902</v>
+        <v>5202210648.578355</v>
       </c>
       <c r="F4" t="n">
-        <v>0.163940856470966</v>
+        <v>0.1327543178965033</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03376070065131748</v>
+        <v>0.03350256411673065</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>33</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2448687381.949807</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3173857066.48996</v>
+        <v>3561672869.031245</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09058431768586653</v>
+        <v>0.1088843471571301</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04290908897345871</v>
+        <v>0.03634419259518421</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>37</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1586928591.547577</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2277738453.795651</v>
+        <v>2294975292.185957</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1400371248162108</v>
+        <v>0.1407381322918504</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03630322694314052</v>
+        <v>0.05370846905384102</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1138869226.344167</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2977534532.651663</v>
+        <v>1922481760.215764</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07321071845220629</v>
+        <v>0.06418881528924103</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04777014924245167</v>
+        <v>0.03624413152586105</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>27</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1488767233.341873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2705171014.039354</v>
+        <v>2893190272.116823</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1594560146853626</v>
+        <v>0.1427755304916191</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02255651424186393</v>
+        <v>0.02648744333143851</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>30</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1352585534.32105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1611249902.778088</v>
+        <v>1535974936.608817</v>
       </c>
       <c r="F9" t="n">
-        <v>0.145565497549352</v>
+        <v>0.1790182130081823</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03412220350375356</v>
+        <v>0.03458804330958757</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>805625031.8509825</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5338336014.951072</v>
+        <v>3893015164.341177</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2098266802152386</v>
+        <v>0.1850449299006194</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03964196091528512</v>
+        <v>0.0478108568704108</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>38</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2669168132.896653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3943117062.153544</v>
+        <v>3505096846.477179</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1847251744781301</v>
+        <v>0.1479577130774044</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03873525220678421</v>
+        <v>0.04404810953268222</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>38</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1971558539.710674</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2947403190.100746</v>
+        <v>3238827727.53027</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1643036587516308</v>
+        <v>0.1219711533697533</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03431663834478967</v>
+        <v>0.0419473687714528</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>31</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1473701608.170837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3720368883.509446</v>
+        <v>3639666300.912906</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09767355735331756</v>
+        <v>0.0810261118904835</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02358999230325549</v>
+        <v>0.02771253629782659</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>30</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1860184510.803545</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2769982769.232058</v>
+        <v>3630094258.492749</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1664389345963541</v>
+        <v>0.1529393228085197</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03239107539020369</v>
+        <v>0.03227177111458093</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>29</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1384991435.609713</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1304867374.865523</v>
+        <v>1187493717.762686</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07131924745373461</v>
+        <v>0.103608004645878</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04375712026362762</v>
+        <v>0.03328073028870186</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>652433728.6286833</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1827219458.620526</v>
+        <v>2636587184.774158</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07124359480994781</v>
+        <v>0.1048605907467518</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04125121812228959</v>
+        <v>0.04441933848734505</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>15</v>
-      </c>
-      <c r="J16" t="n">
-        <v>913609820.1591066</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5102928105.029155</v>
+        <v>3347287215.058198</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1208148051764772</v>
+        <v>0.1311727482160423</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04529767686371862</v>
+        <v>0.03681366794804682</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2551464032.530159</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2742587486.524711</v>
+        <v>3954406904.883641</v>
       </c>
       <c r="F18" t="n">
-        <v>0.12627102484725</v>
+        <v>0.1221366121597575</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03365132659757947</v>
+        <v>0.03307641324315427</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>30</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1371293792.074519</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1011394701.315288</v>
+        <v>1297803177.249918</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1881034244008192</v>
+        <v>0.1344604194134335</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02579418601270723</v>
+        <v>0.02267643428040092</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>505697382.5892295</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1732146807.211174</v>
+        <v>2786558444.746498</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1103053863422399</v>
+        <v>0.1420009185708885</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02043363647666559</v>
+        <v>0.02921477988616151</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" t="n">
-        <v>866073458.429341</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1745009554.430551</v>
+        <v>2454818310.680894</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09491798631224534</v>
+        <v>0.08022574809861299</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02925675233784768</v>
+        <v>0.03953284582261511</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>872504837.4368448</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3812589781.601315</v>
+        <v>3811909245.310895</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1323118183333585</v>
+        <v>0.1433820645542994</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05288706386580646</v>
+        <v>0.05080335406898871</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>25</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1906294903.595523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1301301804.369449</v>
+        <v>1482537509.930467</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1832098259754797</v>
+        <v>0.1585658691955052</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03548114008307435</v>
+        <v>0.03562548061250029</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>650650921.5249915</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4149582476.417667</v>
+        <v>3009545733.438292</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1045149013887251</v>
+        <v>0.1059995581295196</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03658620900883547</v>
+        <v>0.03653356007485636</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>27</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2074791196.065472</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1058610770.780501</v>
+        <v>1094136910.267643</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09391152793253398</v>
+        <v>0.1194279191182958</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02402600546858692</v>
+        <v>0.02475123436507227</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>529305435.8149613</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>947533087.6448696</v>
+        <v>1335735367.280483</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08259287360329105</v>
+        <v>0.08722620075392956</v>
       </c>
       <c r="G26" t="n">
-        <v>0.032718150250006</v>
+        <v>0.03388930002322683</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>473766503.0129533</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3035151152.186772</v>
+        <v>3278848740.408186</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09963116638586703</v>
+        <v>0.1113154409952878</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02518654574910984</v>
+        <v>0.02315524557957056</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>22</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1517575634.112289</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3361400304.767405</v>
+        <v>3485671363.45753</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1237398176373598</v>
+        <v>0.1503682493082399</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04841006442880974</v>
+        <v>0.0435246900124516</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>29</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1680700194.904767</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4768378360.216546</v>
+        <v>5607854678.03463</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1328379613562116</v>
+        <v>0.1498417639448756</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03322624680988907</v>
+        <v>0.03809226605908463</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>42</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2384189143.638196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2177650456.345721</v>
+        <v>1889271147.786457</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09606491059969732</v>
+        <v>0.09484748396489559</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03145667348571014</v>
+        <v>0.03047725761568945</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1088825285.790936</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1115026250.890479</v>
+        <v>1236031902.506794</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09730738470805893</v>
+        <v>0.07104231326870634</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03591593573290752</v>
+        <v>0.03544717934836391</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>557513096.8377211</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1269585672.631064</v>
+        <v>1397372872.246839</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09801683217955001</v>
+        <v>0.09544403136955155</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03345356516884619</v>
+        <v>0.03797421504312906</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>634792856.8462158</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2791077693.280561</v>
+        <v>2721598056.17629</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1402994003272884</v>
+        <v>0.2055330712998022</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04230942835869885</v>
+        <v>0.05233514872323802</v>
       </c>
       <c r="H33" t="b">
         <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>25</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1395538859.976205</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1174117623.623106</v>
+        <v>1147450771.533139</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09080303974854997</v>
+        <v>0.07987859928883936</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02719835449629117</v>
+        <v>0.01718296294601718</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>587058821.0094866</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>876346342.8882264</v>
+        <v>968512547.5935411</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08059572242570524</v>
+        <v>0.07483690870539222</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04076586582416964</v>
+        <v>0.03806624799863946</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>438173217.0635168</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2646765472.104278</v>
+        <v>3112870303.212706</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1540975715693594</v>
+        <v>0.1366883548607793</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02310918463155297</v>
+        <v>0.02303000843888282</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>23</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1323382746.182338</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2495762567.492951</v>
+        <v>2434241486.316076</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06925460990398491</v>
+        <v>0.0707220014112166</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03657126408815449</v>
+        <v>0.02658767569969255</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>23</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1247881379.168642</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1562387221.658816</v>
+        <v>1661746016.921896</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08559407286339249</v>
+        <v>0.0925933087750323</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03102397300318371</v>
+        <v>0.03843292289048486</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>781193651.1960212</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1969372574.521492</v>
+        <v>1727018184.787057</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1484191334074451</v>
+        <v>0.1300710003376006</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02547204843470006</v>
+        <v>0.02760477550983964</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>984686286.3814887</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1312098302.872039</v>
+        <v>1522489010.634075</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1518262191307922</v>
+        <v>0.1246417426894093</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04610082232733737</v>
+        <v>0.03722131154810301</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>656049164.615643</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2609428528.003731</v>
+        <v>2633637960.870483</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1047980065431981</v>
+        <v>0.1344127446093056</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04192807139575789</v>
+        <v>0.03440594780571893</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1304714278.480125</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4036083252.451491</v>
+        <v>3667492614.400733</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07891727418703062</v>
+        <v>0.104350303859845</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03745183260526128</v>
+        <v>0.03870900493022117</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>32</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2018041657.918473</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2539229627.850368</v>
+        <v>1898112039.292081</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1861461785883742</v>
+        <v>0.2045816840150095</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01955279260497483</v>
+        <v>0.0232270792946088</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>31</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1269614858.578445</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2236946246.455905</v>
+        <v>2365390372.922891</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07503809060188051</v>
+        <v>0.07650486057600775</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03574277593599204</v>
+        <v>0.02926424142973754</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1118473276.775153</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2446745837.434013</v>
+        <v>2003605247.996115</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1511896538588314</v>
+        <v>0.136007782819592</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03665929367906511</v>
+        <v>0.03484202313218678</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1223372954.542797</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4923796337.370521</v>
+        <v>3888628511.498653</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1123116742735146</v>
+        <v>0.1115213569065318</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04323625567842381</v>
+        <v>0.04078550376657995</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>32</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2461898191.029805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3595372944.733522</v>
+        <v>4187637863.634799</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1775482516073065</v>
+        <v>0.176049169383507</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0469848401650579</v>
+        <v>0.0579053823859582</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>24</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1797686448.53495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4231951277.669622</v>
+        <v>3473029679.39747</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08433254962708392</v>
+        <v>0.1018943254249205</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03348538732452156</v>
+        <v>0.02948592013932652</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>31</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2115975659.672676</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1762359184.959332</v>
+        <v>1534667627.76596</v>
       </c>
       <c r="F49" t="n">
-        <v>0.148332080601613</v>
+        <v>0.1613842437012671</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03382044413395584</v>
+        <v>0.03412119128527753</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>881179583.6288347</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3277443034.472614</v>
+        <v>3097635665.918081</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1640377545541756</v>
+        <v>0.1606389216229343</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03556221581048707</v>
+        <v>0.04723841967628459</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>31</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1638721557.27299</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1502525488.730763</v>
+        <v>990656872.8796144</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1445791240971139</v>
+        <v>0.1442706878720889</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03406313493806162</v>
+        <v>0.04443123688137898</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>751262746.8182671</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3251146856.348031</v>
+        <v>4739047620.189046</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1013007871187494</v>
+        <v>0.1251630493203812</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04657138380241815</v>
+        <v>0.06045817944028667</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>38</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1625573528.653109</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2497298633.574372</v>
+        <v>3477095775.634877</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1367286002961846</v>
+        <v>0.1584846507142056</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03289681900775937</v>
+        <v>0.02774076639872025</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>26</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1248649383.825889</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3850315105.530497</v>
+        <v>4955940125.14236</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1252967936488436</v>
+        <v>0.1060211447247074</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03770600794309947</v>
+        <v>0.04539153429818966</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>30</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1925157605.008364</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4214469025.199241</v>
+        <v>4613450814.176188</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1916782372671262</v>
+        <v>0.2063228873654992</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02082361920841855</v>
+        <v>0.02619439422527705</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>25</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2107234496.890363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1207149332.276143</v>
+        <v>1226006494.732442</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1455580984492304</v>
+        <v>0.1059879955598726</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04593719452292924</v>
+        <v>0.05154756352521758</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>603574751.6721497</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3533245685.39609</v>
+        <v>3619408642.46524</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1311026942784831</v>
+        <v>0.1244561351375929</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01959906626668446</v>
+        <v>0.02011783882195047</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>29</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1766622891.806274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1498231454.393849</v>
+        <v>1894770414.698043</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1909841241954661</v>
+        <v>0.1304128219472674</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03309857349208147</v>
+        <v>0.03738835826932611</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>749115758.4181404</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3750083422.604513</v>
+        <v>3746022145.3836</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09125885440266746</v>
+        <v>0.09295245316160636</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04226029064096776</v>
+        <v>0.0419944081526958</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>26</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1875041699.208931</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2498772278.747907</v>
+        <v>2697236168.413717</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1418457104851015</v>
+        <v>0.1275838237385383</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02760362865616121</v>
+        <v>0.02031121022825162</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>29</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1249386157.084045</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2057766024.267329</v>
+        <v>2878990998.135293</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1647618815659997</v>
+        <v>0.1339660216237012</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02708828151034286</v>
+        <v>0.0323498114886662</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>31</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1028883081.370942</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1417461657.388213</v>
+        <v>1956316429.457249</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1454719730292749</v>
+        <v>0.1706196537712385</v>
       </c>
       <c r="G62" t="n">
-        <v>0.041308596785999</v>
+        <v>0.04603680749001363</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>708730799.3139344</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5271912914.845145</v>
+        <v>3522892995.635564</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09131160786244401</v>
+        <v>0.08930281333130644</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03693838923929548</v>
+        <v>0.0412809713993822</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>26</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2635956462.981277</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4658260928.597581</v>
+        <v>3714147039.625457</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1306749253844752</v>
+        <v>0.1358673071620473</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02155844736023017</v>
+        <v>0.03049382808977746</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>28</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2329130546.383101</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4255949219.520913</v>
+        <v>3691631319.605813</v>
       </c>
       <c r="F65" t="n">
-        <v>0.109132288783641</v>
+        <v>0.1321499078793733</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02658251949813137</v>
+        <v>0.02339871617465401</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>33</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2127974612.973898</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3942803424.177192</v>
+        <v>4854440252.823683</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1059307707645018</v>
+        <v>0.1540958806314316</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03607981451046818</v>
+        <v>0.04450137255046655</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>26</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1971401682.518305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3411404891.098187</v>
+        <v>2239160640.255594</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07588680096322507</v>
+        <v>0.0779949371562567</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04267416521716837</v>
+        <v>0.05073255126407152</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>29</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1705702428.946442</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6003991068.830902</v>
+        <v>3890956761.833569</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09712936378075636</v>
+        <v>0.09928537364458095</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03955080118253957</v>
+        <v>0.03141856458164877</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>29</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3001995651.557886</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1736152420.734531</v>
+        <v>1547659209.296389</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1233406471538312</v>
+        <v>0.1587011848788236</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05842649761772236</v>
+        <v>0.05454479241512572</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>868076181.1216226</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3677727783.530174</v>
+        <v>2956715156.635227</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0977642903752375</v>
+        <v>0.08804599071625281</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03825314424106563</v>
+        <v>0.04283414202754843</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>26</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1838863912.744566</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4614984624.378922</v>
+        <v>3867465345.99964</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1638372652490954</v>
+        <v>0.1813947830402885</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02903745413209164</v>
+        <v>0.0314089709765965</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>33</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2307492389.066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2107020189.758719</v>
+        <v>1930697881.155074</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06822867420452412</v>
+        <v>0.06870730722915605</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03475212405221459</v>
+        <v>0.03395167087229348</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1053510023.890094</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3272084869.771567</v>
+        <v>2674254636.616325</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07392247580151344</v>
+        <v>0.1026761920616831</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04643804998210774</v>
+        <v>0.04184394494166051</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>35</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1636042405.883246</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3596084561.682998</v>
+        <v>3434969397.355451</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1366477987318256</v>
+        <v>0.1235359127596609</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02629914794711042</v>
+        <v>0.02938426924950947</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>31</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1798042294.605118</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2050799992.852979</v>
+        <v>1923706728.547447</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1460297333343692</v>
+        <v>0.1438338896588943</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03040877532568476</v>
+        <v>0.02359707010974418</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1025399955.746377</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5115983292.881506</v>
+        <v>4833063130.481041</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1241521910049589</v>
+        <v>0.09285791087749658</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02561363071906319</v>
+        <v>0.03405669788474322</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2557991677.898023</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1895977028.01971</v>
+        <v>1584742202.144409</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1813856167401479</v>
+        <v>0.176294910519786</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02144158651253746</v>
+        <v>0.0287420618064093</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>947988560.0686138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3340068562.672519</v>
+        <v>4771774955.190152</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09569316779654048</v>
+        <v>0.1012209995060424</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03513090930934371</v>
+        <v>0.03836483580922741</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>32</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1670034294.227993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1736194923.677702</v>
+        <v>1271378172.159039</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1301201489811813</v>
+        <v>0.1559978043634912</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02449355230915372</v>
+        <v>0.03116723725771754</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>868097537.2544608</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3460128262.113986</v>
+        <v>3833172579.679231</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08377309136097505</v>
+        <v>0.07397401007354605</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03326248740102643</v>
+        <v>0.03188831888912221</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>19</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1730064103.613153</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3822205085.335771</v>
+        <v>4122088291.359703</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1058817950773153</v>
+        <v>0.1192850623018074</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02700194327158834</v>
+        <v>0.02880668732022751</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>20</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1911102499.187733</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4884829081.312721</v>
+        <v>5055584466.033909</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1515846276257878</v>
+        <v>0.174427175152109</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0226018998594508</v>
+        <v>0.02590729376731524</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>32</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2442414530.911349</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2432269971.099792</v>
+        <v>1873697819.711237</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1387347895648038</v>
+        <v>0.148294361017627</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02853029839113121</v>
+        <v>0.04274810032198855</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1216135024.625975</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1770729881.587537</v>
+        <v>1898099808.988225</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1080930722646183</v>
+        <v>0.07616791998329607</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03991952311726189</v>
+        <v>0.03152928907473349</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>885364979.3176241</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3513277825.032007</v>
+        <v>2224042611.262111</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1659965472044617</v>
+        <v>0.1720050778896407</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03446157522236963</v>
+        <v>0.04073700148037771</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>34</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1756639029.245592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2344110648.23622</v>
+        <v>2309769907.484417</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1710997446099378</v>
+        <v>0.147197777072079</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02711976817223316</v>
+        <v>0.02301018625048725</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>8</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1172055399.493293</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1379071949.107419</v>
+        <v>1186616136.884193</v>
       </c>
       <c r="F87" t="n">
-        <v>0.136280898537191</v>
+        <v>0.1691542253853763</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02915565423000917</v>
+        <v>0.03409862919559094</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>689536075.965934</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2389210809.303912</v>
+        <v>3660435394.815271</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1576282259676645</v>
+        <v>0.1120422262327924</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03121793496753858</v>
+        <v>0.03456687252809013</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>36</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1194605374.673644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3454,22 +2922,16 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2375386721.185757</v>
+        <v>2394320842.50802</v>
       </c>
       <c r="F89" t="n">
-        <v>0.147438708322913</v>
+        <v>0.09926218255693744</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03365571605216056</v>
+        <v>0.03910232989271679</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>30</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1187693444.414937</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2109077022.120791</v>
+        <v>1736796198.766198</v>
       </c>
       <c r="F90" t="n">
-        <v>0.105963219086004</v>
+        <v>0.09353148673290582</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03710857960850655</v>
+        <v>0.05630207523801524</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1054538601.172101</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1866044654.786393</v>
+        <v>1643824366.002213</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1659029274599316</v>
+        <v>0.1622253265590092</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03821073751805984</v>
+        <v>0.06031477110499361</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>933022317.4534007</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2630009313.758653</v>
+        <v>1868370810.046459</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08989280911393566</v>
+        <v>0.09415424273184106</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04319513994719849</v>
+        <v>0.03237621685187003</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1315004650.566236</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4609952684.53157</v>
+        <v>4502319083.692979</v>
       </c>
       <c r="F93" t="n">
-        <v>0.140059231162482</v>
+        <v>0.1132627164066002</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0505809442304195</v>
+        <v>0.0543038631067</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>27</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2304976303.383661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1860977367.149591</v>
+        <v>1780116133.764469</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1615466505708436</v>
+        <v>0.1665736774427699</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02968586120723991</v>
+        <v>0.03107641986055095</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>930488663.7301127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2796102437.26852</v>
+        <v>2101528121.42659</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09045466026773513</v>
+        <v>0.1110547293981809</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05241261960227725</v>
+        <v>0.03749776912132983</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>21</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1398051233.123735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2172741933.241137</v>
+        <v>1959032752.483445</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1163946062066041</v>
+        <v>0.1260770930753984</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03287372902703468</v>
+        <v>0.03342325150523482</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1086370935.071424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3926091833.219147</v>
+        <v>4896698269.608513</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1756194490561785</v>
+        <v>0.1755823331099811</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02352534049523846</v>
+        <v>0.02491627141538736</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>29</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1963045966.970911</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3205775938.582454</v>
+        <v>3000275885.85669</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1205054308511739</v>
+        <v>0.1277527491321706</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03034508665812697</v>
+        <v>0.0318244362466121</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>24</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1602887967.876567</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2698450896.242242</v>
+        <v>2637023148.000202</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09313100826415281</v>
+        <v>0.1063829129492751</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03050238962856396</v>
+        <v>0.02574861767762206</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>29</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1349225412.136682</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3374139868.304048</v>
+        <v>2917221777.50201</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1427151833864134</v>
+        <v>0.1687381311257301</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01857835352862706</v>
+        <v>0.02124350605094654</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>28</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1687069954.802476</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2240960486.426827</v>
+        <v>3019594027.518454</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2163341104937721</v>
+        <v>0.1762138397120321</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03767647696516607</v>
+        <v>0.0386378867029033</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>39</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1120480231.865631</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_91.xlsx
+++ b/output/fit_clients/fit_round_91.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2147394281.317618</v>
+        <v>1951531796.720204</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08637935165129577</v>
+        <v>0.08825687248812503</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03107492962986761</v>
+        <v>0.04053729186990864</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1602966054.780038</v>
+        <v>2366447035.994574</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1594503877702857</v>
+        <v>0.1218922194572198</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03696772537026975</v>
+        <v>0.03618997052388691</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5202210648.578355</v>
+        <v>4203345735.621959</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1327543178965033</v>
+        <v>0.1579481897271899</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03350256411673065</v>
+        <v>0.02571484694671304</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3561672869.031245</v>
+        <v>3640938423.462728</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1088843471571301</v>
+        <v>0.0712102141307482</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03634419259518421</v>
+        <v>0.04290002832369432</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2294975292.185957</v>
+        <v>2629749793.650676</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1407381322918504</v>
+        <v>0.1463599321347952</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05370846905384102</v>
+        <v>0.05188228252777222</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1922481760.215764</v>
+        <v>2551198916.458845</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06418881528924103</v>
+        <v>0.07281965168482302</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03624413152586105</v>
+        <v>0.03362191648086096</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2893190272.116823</v>
+        <v>2539229069.227683</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1427755304916191</v>
+        <v>0.1820980850467693</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02648744333143851</v>
+        <v>0.02474220085883985</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1535974936.608817</v>
+        <v>2226963404.825697</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1790182130081823</v>
+        <v>0.1534362698508244</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03458804330958757</v>
+        <v>0.03006493406618035</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3893015164.341177</v>
+        <v>5255148600.395476</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1850449299006194</v>
+        <v>0.1475314032892614</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0478108568704108</v>
+        <v>0.03883704445333627</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3505096846.477179</v>
+        <v>3873522772.30138</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1479577130774044</v>
+        <v>0.1518304939813825</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04404810953268222</v>
+        <v>0.0441055701982219</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3238827727.53027</v>
+        <v>2949784731.467865</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1219711533697533</v>
+        <v>0.1535952678160709</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0419473687714528</v>
+        <v>0.03959804910112449</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3639666300.912906</v>
+        <v>4502073673.666145</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0810261118904835</v>
+        <v>0.09175770500443925</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02771253629782659</v>
+        <v>0.02141132467136451</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3630094258.492749</v>
+        <v>3889606709.137346</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1529393228085197</v>
+        <v>0.1802733268553328</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03227177111458093</v>
+        <v>0.04107398242711374</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1187493717.762686</v>
+        <v>1116091918.922807</v>
       </c>
       <c r="F15" t="n">
-        <v>0.103608004645878</v>
+        <v>0.09840971187951156</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03328073028870186</v>
+        <v>0.04922371519494612</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2636587184.774158</v>
+        <v>2498853954.943212</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1048605907467518</v>
+        <v>0.07760137877478809</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04441933848734505</v>
+        <v>0.04134285588413351</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3347287215.058198</v>
+        <v>5005806193.596799</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1311727482160423</v>
+        <v>0.1375868157028161</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03681366794804682</v>
+        <v>0.03715121250980819</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3954406904.883641</v>
+        <v>3481132328.804548</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1221366121597575</v>
+        <v>0.1274412941605215</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03307641324315427</v>
+        <v>0.03197114197702858</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1297803177.249918</v>
+        <v>1247632219.646728</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1344604194134335</v>
+        <v>0.1193327947567882</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02267643428040092</v>
+        <v>0.01909681984555967</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2786558444.746498</v>
+        <v>2567333351.323697</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1420009185708885</v>
+        <v>0.1312384416179244</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02921477988616151</v>
+        <v>0.0288025071646371</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2454818310.680894</v>
+        <v>2139877900.428688</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08022574809861299</v>
+        <v>0.09204817181326079</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03953284582261511</v>
+        <v>0.04514172631378809</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3811909245.310895</v>
+        <v>3154218551.428659</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1433820645542994</v>
+        <v>0.1112064644144415</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05080335406898871</v>
+        <v>0.03664636798338469</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1482537509.930467</v>
+        <v>1334633046.131898</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1585658691955052</v>
+        <v>0.153911266896459</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03562548061250029</v>
+        <v>0.05399215963629638</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3009545733.438292</v>
+        <v>3037922529.322559</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1059995581295196</v>
+        <v>0.1246002307097539</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03653356007485636</v>
+        <v>0.03094802035580893</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1130,13 +1130,13 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1094136910.267643</v>
+        <v>1025469246.210006</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1194279191182958</v>
+        <v>0.09770448572724669</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02475123436507227</v>
+        <v>0.0296112980336676</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1335735367.280483</v>
+        <v>1237771953.905891</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08722620075392956</v>
+        <v>0.09024992604371575</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03388930002322683</v>
+        <v>0.0281689224732074</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3278848740.408186</v>
+        <v>3849547676.506204</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1113154409952878</v>
+        <v>0.1556015679798154</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02315524557957056</v>
+        <v>0.02328023328274759</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3485671363.45753</v>
+        <v>3367219477.233972</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1503682493082399</v>
+        <v>0.1270313179018267</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0435246900124516</v>
+        <v>0.0459375820455554</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5607854678.03463</v>
+        <v>4415779748.306031</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1498417639448756</v>
+        <v>0.1393615681845714</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03809226605908463</v>
+        <v>0.04364325477385089</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1889271147.786457</v>
+        <v>1694129497.910464</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09484748396489559</v>
+        <v>0.1120191875008557</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03047725761568945</v>
+        <v>0.02870528925111662</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1236031902.506794</v>
+        <v>1262882501.230741</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07104231326870634</v>
+        <v>0.0716805566990569</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03544717934836391</v>
+        <v>0.04515642083277518</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1397372872.246839</v>
+        <v>1431083495.69411</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09544403136955155</v>
+        <v>0.07413624508042786</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03797421504312906</v>
+        <v>0.02977915254798984</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,16 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2721598056.17629</v>
+        <v>2986879939.411914</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2055330712998022</v>
+        <v>0.1902104102474867</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05233514872323802</v>
+        <v>0.0570634071084018</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1147450771.533139</v>
+        <v>981510458.8636395</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07987859928883936</v>
+        <v>0.1076827604017521</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01718296294601718</v>
+        <v>0.01789500730613521</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>968512547.5935411</v>
+        <v>911417980.5034524</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07483690870539222</v>
+        <v>0.07917305628696329</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03806624799863946</v>
+        <v>0.03987728226025476</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3112870303.212706</v>
+        <v>2654818904.98176</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1366883548607793</v>
+        <v>0.1119930619079662</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02303000843888282</v>
+        <v>0.02007350396613224</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2434241486.316076</v>
+        <v>2133457134.737512</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0707220014112166</v>
+        <v>0.09874272569822305</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02658767569969255</v>
+        <v>0.03802110449283167</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1661746016.921896</v>
+        <v>1489018226.789393</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0925933087750323</v>
+        <v>0.1123914072268448</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03843292289048486</v>
+        <v>0.03250344622595977</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1727018184.787057</v>
+        <v>1923142365.385612</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1300710003376006</v>
+        <v>0.131825534681772</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02760477550983964</v>
+        <v>0.0314285308395918</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1522489010.634075</v>
+        <v>1671676714.147728</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1246417426894093</v>
+        <v>0.1355135225089571</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03722131154810301</v>
+        <v>0.04199136133094496</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2633637960.870483</v>
+        <v>2011451104.818583</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1344127446093056</v>
+        <v>0.1149840680492699</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03440594780571893</v>
+        <v>0.02911400501673237</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3667492614.400733</v>
+        <v>2695038615.985622</v>
       </c>
       <c r="F42" t="n">
-        <v>0.104350303859845</v>
+        <v>0.08241618489241961</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03870900493022117</v>
+        <v>0.03254518844964695</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1898112039.292081</v>
+        <v>2009191272.381992</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2045816840150095</v>
+        <v>0.2029671593968502</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0232270792946088</v>
+        <v>0.02277980322611585</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2365390372.922891</v>
+        <v>1487501546.012075</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07650486057600775</v>
+        <v>0.08601919033208723</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02926424142973754</v>
+        <v>0.0365918926999542</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2003605247.996115</v>
+        <v>1586201814.034628</v>
       </c>
       <c r="F45" t="n">
-        <v>0.136007782819592</v>
+        <v>0.1249472081696928</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03484202313218678</v>
+        <v>0.04273335368135717</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3888628511.498653</v>
+        <v>4962098205.041215</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1115213569065318</v>
+        <v>0.1288632677527526</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04078550376657995</v>
+        <v>0.04245013724102475</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4187637863.634799</v>
+        <v>3291587765.944014</v>
       </c>
       <c r="F47" t="n">
-        <v>0.176049169383507</v>
+        <v>0.160307334216422</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0579053823859582</v>
+        <v>0.04283174159339156</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3473029679.39747</v>
+        <v>3759153171.738036</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1018943254249205</v>
+        <v>0.06660767859229282</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02948592013932652</v>
+        <v>0.02635627703820314</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1534667627.76596</v>
+        <v>1918754764.345595</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1613842437012671</v>
+        <v>0.1812094536637339</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03412119128527753</v>
+        <v>0.0428800714321774</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3097635665.918081</v>
+        <v>2860525840.523697</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1606389216229343</v>
+        <v>0.1564299228495085</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04723841967628459</v>
+        <v>0.03545170502683586</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>990656872.8796144</v>
+        <v>1210954821.701407</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1442706878720889</v>
+        <v>0.1458861573844567</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04443123688137898</v>
+        <v>0.04601644280737762</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4739047620.189046</v>
+        <v>3967740529.691292</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1251630493203812</v>
+        <v>0.1041158883917039</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06045817944028667</v>
+        <v>0.05726340617487588</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3477095775.634877</v>
+        <v>3724921496.232974</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1584846507142056</v>
+        <v>0.1413290686675527</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02774076639872025</v>
+        <v>0.03288308678033443</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4955940125.14236</v>
+        <v>4771561649.498598</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1060211447247074</v>
+        <v>0.1079283852171378</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04539153429818966</v>
+        <v>0.04163951228101671</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4613450814.176188</v>
+        <v>4421027244.299087</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2063228873654992</v>
+        <v>0.1575648226825955</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02619439422527705</v>
+        <v>0.02091003474699193</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1226006494.732442</v>
+        <v>1565921697.651129</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1059879955598726</v>
+        <v>0.1399479732043111</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05154756352521758</v>
+        <v>0.04767801759672566</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3619408642.46524</v>
+        <v>3835820801.895333</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1244561351375929</v>
+        <v>0.1460027733016013</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02011783882195047</v>
+        <v>0.02713650419481991</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1894770414.698043</v>
+        <v>1902358512.331087</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1304128219472674</v>
+        <v>0.1564809122643795</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03738835826932611</v>
+        <v>0.03296661333771779</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3746022145.3836</v>
+        <v>4024866937.264512</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09295245316160636</v>
+        <v>0.1141812003630675</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0419944081526958</v>
+        <v>0.03363832570569469</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2697236168.413717</v>
+        <v>2584447978.929421</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1275838237385383</v>
+        <v>0.1612049736662553</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02031121022825162</v>
+        <v>0.02909185797335488</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2878990998.135293</v>
+        <v>3095081332.332874</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1339660216237012</v>
+        <v>0.1509062844465483</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0323498114886662</v>
+        <v>0.02146460282920486</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1956316429.457249</v>
+        <v>1447804954.11274</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1706196537712385</v>
+        <v>0.193149887034739</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04603680749001363</v>
+        <v>0.03689343396359696</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3522892995.635564</v>
+        <v>4094448418.822012</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08930281333130644</v>
+        <v>0.1018544751832659</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0412809713993822</v>
+        <v>0.03821007199787733</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3714147039.625457</v>
+        <v>5088653423.26985</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1358673071620473</v>
+        <v>0.1629929560653322</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03049382808977746</v>
+        <v>0.02202963106614872</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3691631319.605813</v>
+        <v>4238594904.724977</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1321499078793733</v>
+        <v>0.1337250906112561</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02339871617465401</v>
+        <v>0.02024435759295116</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4854440252.823683</v>
+        <v>4507317689.323396</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1540958806314316</v>
+        <v>0.1569144565625095</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04450137255046655</v>
+        <v>0.04539056101948604</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2239160640.255594</v>
+        <v>2275936007.029555</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0779949371562567</v>
+        <v>0.09125894970802957</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05073255126407152</v>
+        <v>0.04135873537753302</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3890956761.833569</v>
+        <v>6047237157.796841</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09928537364458095</v>
+        <v>0.1564658111614885</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03141856458164877</v>
+        <v>0.03279272887461185</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1547659209.296389</v>
+        <v>1524671983.695926</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1587011848788236</v>
+        <v>0.1345818716882474</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05454479241512572</v>
+        <v>0.03722015151696573</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2956715156.635227</v>
+        <v>3161427009.669141</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08804599071625281</v>
+        <v>0.09448788956999672</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04283414202754843</v>
+        <v>0.03384966959178936</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3867465345.99964</v>
+        <v>3809404633.965511</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1813947830402885</v>
+        <v>0.1224278563421549</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0314089709765965</v>
+        <v>0.02748704662211777</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1930697881.155074</v>
+        <v>1387737789.541406</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06870730722915605</v>
+        <v>0.1068770900154085</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03395167087229348</v>
+        <v>0.03674447069553772</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2674254636.616325</v>
+        <v>3296157038.680168</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1026761920616831</v>
+        <v>0.0755790676354369</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04184394494166051</v>
+        <v>0.04049701641236896</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3434969397.355451</v>
+        <v>3070404603.87149</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1235359127596609</v>
+        <v>0.1754943664883384</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02938426924950947</v>
+        <v>0.0350877686593559</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1923706728.547447</v>
+        <v>2188942839.205542</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1438338896588943</v>
+        <v>0.1136082409295123</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02359707010974418</v>
+        <v>0.0284333790644615</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4833063130.481041</v>
+        <v>3746770500.038342</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09285791087749658</v>
+        <v>0.1033456889363136</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03405669788474322</v>
+        <v>0.02316365596734106</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1584742202.144409</v>
+        <v>1395957089.51182</v>
       </c>
       <c r="F77" t="n">
-        <v>0.176294910519786</v>
+        <v>0.1340318587930322</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0287420618064093</v>
+        <v>0.02572503112545624</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4771774955.190152</v>
+        <v>4351459814.606856</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1012209995060424</v>
+        <v>0.09763799498729903</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03836483580922741</v>
+        <v>0.04916157069645095</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1271378172.159039</v>
+        <v>1541486616.996208</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1559978043634912</v>
+        <v>0.1740854007199767</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03116723725771754</v>
+        <v>0.03477418796032131</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3833172579.679231</v>
+        <v>5287137425.080709</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07397401007354605</v>
+        <v>0.1029504467009996</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03188831888912221</v>
+        <v>0.03868925873916009</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4122088291.359703</v>
+        <v>5090116868.9547</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1192850623018074</v>
+        <v>0.1291260962651574</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02880668732022751</v>
+        <v>0.02758251633107367</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5055584466.033909</v>
+        <v>3692233441.38686</v>
       </c>
       <c r="F82" t="n">
-        <v>0.174427175152109</v>
+        <v>0.2018416979465744</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02590729376731524</v>
+        <v>0.01875790270850245</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1873697819.711237</v>
+        <v>1817070530.099859</v>
       </c>
       <c r="F83" t="n">
-        <v>0.148294361017627</v>
+        <v>0.1427256898536968</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04274810032198855</v>
+        <v>0.03640344183353228</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1898099808.988225</v>
+        <v>1568443316.277085</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07616791998329607</v>
+        <v>0.100055081676668</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03152928907473349</v>
+        <v>0.0319143471869212</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2224042611.262111</v>
+        <v>3115219407.877516</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1720050778896407</v>
+        <v>0.1271523999329329</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04073700148037771</v>
+        <v>0.0475203636494795</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2309769907.484417</v>
+        <v>2284674108.936049</v>
       </c>
       <c r="F86" t="n">
-        <v>0.147197777072079</v>
+        <v>0.1645660664393155</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02301018625048725</v>
+        <v>0.02212804906046391</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1186616136.884193</v>
+        <v>1332310589.846006</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1691542253853763</v>
+        <v>0.142454230905842</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03409862919559094</v>
+        <v>0.02998181097439179</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,22 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3660435394.815271</v>
+        <v>2858046424.238377</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1120422262327924</v>
+        <v>0.1141753694571486</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03456687252809013</v>
+        <v>0.029137657579152</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2394320842.50802</v>
+        <v>2349386642.297357</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09926218255693744</v>
+        <v>0.1471816089206866</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03910232989271679</v>
+        <v>0.03278642100566492</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1736796198.766198</v>
+        <v>1768210120.40973</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09353148673290582</v>
+        <v>0.08336397660277731</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05630207523801524</v>
+        <v>0.04136559934961356</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1643824366.002213</v>
+        <v>1591000737.900702</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1622253265590092</v>
+        <v>0.1323496293892395</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06031477110499361</v>
+        <v>0.05847389566431514</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1868370810.046459</v>
+        <v>2961392933.557059</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09415424273184106</v>
+        <v>0.08302248724382912</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03237621685187003</v>
+        <v>0.03975114973527364</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4502319083.692979</v>
+        <v>4280848526.504505</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1132627164066002</v>
+        <v>0.1038676232144848</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0543038631067</v>
+        <v>0.05131497230849072</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,16 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1780116133.764469</v>
+        <v>1975381055.922696</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1665736774427699</v>
+        <v>0.1192680800756506</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03107641986055095</v>
+        <v>0.03944704948680737</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2101528121.42659</v>
+        <v>2144608792.438757</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1110547293981809</v>
+        <v>0.09002332819923148</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03749776912132983</v>
+        <v>0.04423352714707601</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1959032752.483445</v>
+        <v>1510369368.266523</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1260770930753984</v>
+        <v>0.1199767393846494</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03342325150523482</v>
+        <v>0.03852355464118284</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4896698269.608513</v>
+        <v>3358473294.64213</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1755823331099811</v>
+        <v>0.1279422187013283</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02491627141538736</v>
+        <v>0.01986028594886712</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3000275885.85669</v>
+        <v>3127002073.836493</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1277527491321706</v>
+        <v>0.1048888771422054</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0318244362466121</v>
+        <v>0.02756053558362257</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2637023148.000202</v>
+        <v>2548564725.743541</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1063829129492751</v>
+        <v>0.0962285780619189</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02574861767762206</v>
+        <v>0.02950928699567201</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2917221777.50201</v>
+        <v>3195304995.266566</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1687381311257301</v>
+        <v>0.130662835739781</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02124350605094654</v>
+        <v>0.0220971325891474</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3019594027.518454</v>
+        <v>3552440214.662385</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1762138397120321</v>
+        <v>0.169573281329563</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0386378867029033</v>
+        <v>0.05211391330840439</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_91.xlsx
+++ b/output/fit_clients/fit_round_91.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1951531796.720204</v>
+        <v>2518050318.361431</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08825687248812503</v>
+        <v>0.09048114824807246</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04053729186990864</v>
+        <v>0.03608674568976925</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2366447035.994574</v>
+        <v>2616473766.195088</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1218922194572198</v>
+        <v>0.1445009072863003</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03618997052388691</v>
+        <v>0.03469720577796217</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4203345735.621959</v>
+        <v>3906528167.987519</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1579481897271899</v>
+        <v>0.1536063729968153</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02571484694671304</v>
+        <v>0.03423640872528261</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>58</v>
+      </c>
+      <c r="J4" t="n">
+        <v>91</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3640938423.462728</v>
+        <v>3098648384.869806</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0712102141307482</v>
+        <v>0.07632172683160934</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04290002832369432</v>
+        <v>0.03773932940998719</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>39</v>
+      </c>
+      <c r="J5" t="n">
+        <v>90</v>
+      </c>
+      <c r="K5" t="n">
+        <v>121.9355068992565</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2629749793.650676</v>
+        <v>2427882009.497889</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1463599321347952</v>
+        <v>0.1069241830216055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05188228252777222</v>
+        <v>0.03999653550179895</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2551198916.458845</v>
+        <v>2129083913.15953</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07281965168482302</v>
+        <v>0.06426801168021971</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03362191648086096</v>
+        <v>0.03281687732125435</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2539229069.227683</v>
+        <v>2941241418.529583</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1820980850467693</v>
+        <v>0.2047062325354305</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02474220085883985</v>
+        <v>0.02056345644756513</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>89</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2226963404.825697</v>
+        <v>1685649184.855637</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1534362698508244</v>
+        <v>0.1590791831476028</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03006493406618035</v>
+        <v>0.02352516149568666</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5255148600.395476</v>
+        <v>4796141141.305517</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1475314032892614</v>
+        <v>0.1985206969204923</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03883704445333627</v>
+        <v>0.05057469388266481</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>85</v>
+      </c>
+      <c r="J10" t="n">
+        <v>91</v>
+      </c>
+      <c r="K10" t="n">
+        <v>190.0309995136778</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3873522772.30138</v>
+        <v>3631086204.620696</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1518304939813825</v>
+        <v>0.1754073001160083</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0441055701982219</v>
+        <v>0.03772167797703958</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>37</v>
+      </c>
+      <c r="J11" t="n">
+        <v>91</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2949784731.467865</v>
+        <v>2498765015.28499</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1535952678160709</v>
+        <v>0.1733913661840253</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03959804910112449</v>
+        <v>0.03928355302610931</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +884,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4502073673.666145</v>
+        <v>3306215715.507564</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09175770500443925</v>
+        <v>0.09079531952679556</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02141132467136451</v>
+        <v>0.02496058908425539</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>46</v>
+      </c>
+      <c r="J13" t="n">
+        <v>90</v>
+      </c>
+      <c r="K13" t="n">
+        <v>121.4141002899438</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3889606709.137346</v>
+        <v>2697706095.453371</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1802733268553328</v>
+        <v>0.1785676518574718</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04107398242711374</v>
+        <v>0.02680801613358344</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>17</v>
+      </c>
+      <c r="J14" t="n">
+        <v>89</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1116091918.922807</v>
+        <v>1818343002.692179</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09840971187951156</v>
+        <v>0.08499617190793517</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04922371519494612</v>
+        <v>0.04469714634677355</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2498853954.943212</v>
+        <v>2779256147.588675</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07760137877478809</v>
+        <v>0.0880610362255539</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04134285588413351</v>
+        <v>0.04655186136629794</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5005806193.596799</v>
+        <v>5064996188.924465</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1375868157028161</v>
+        <v>0.1321107789386501</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03715121250980819</v>
+        <v>0.04774204333072573</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>44</v>
+      </c>
+      <c r="J17" t="n">
+        <v>90</v>
+      </c>
+      <c r="K17" t="n">
+        <v>150.6522971446923</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3481132328.804548</v>
+        <v>3652861842.240986</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1274412941605215</v>
+        <v>0.1684243221688817</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03197114197702858</v>
+        <v>0.03422825452116768</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>91</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1247632219.646728</v>
+        <v>1167896383.085888</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1193327947567882</v>
+        <v>0.1156167388036272</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01909681984555967</v>
+        <v>0.02311973764881429</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2567333351.323697</v>
+        <v>2474373649.076081</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1312384416179244</v>
+        <v>0.1057527716102029</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0288025071646371</v>
+        <v>0.0197481605984167</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2139877900.428688</v>
+        <v>1983305773.424244</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09204817181326079</v>
+        <v>0.06771829017567449</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04514172631378809</v>
+        <v>0.03202317025739669</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3154218551.428659</v>
+        <v>2708353704.970623</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1112064644144415</v>
+        <v>0.09510209802517706</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03664636798338469</v>
+        <v>0.0398674351996384</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>22</v>
+      </c>
+      <c r="J22" t="n">
+        <v>87</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1334633046.131898</v>
+        <v>1162318024.967585</v>
       </c>
       <c r="F23" t="n">
-        <v>0.153911266896459</v>
+        <v>0.1651668637471843</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05399215963629638</v>
+        <v>0.04442737140225943</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1273,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3037922529.322559</v>
+        <v>3550096503.84719</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1246002307097539</v>
+        <v>0.1355481921671544</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03094802035580893</v>
+        <v>0.0341121641549216</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28</v>
+      </c>
+      <c r="J24" t="n">
+        <v>90</v>
+      </c>
+      <c r="K24" t="n">
+        <v>135.0714159987293</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1025469246.210006</v>
+        <v>939290985.4085793</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09770448572724669</v>
+        <v>0.09358212314448419</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0296112980336676</v>
+        <v>0.0291252161366775</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1237771953.905891</v>
+        <v>1244040551.376254</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09024992604371575</v>
+        <v>0.1211261159293811</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0281689224732074</v>
+        <v>0.02642828077291182</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3849547676.506204</v>
+        <v>3235520094.735554</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1556015679798154</v>
+        <v>0.1052209591224445</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02328023328274759</v>
+        <v>0.01681760869216522</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>36</v>
+      </c>
+      <c r="J27" t="n">
+        <v>89</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3367219477.233972</v>
+        <v>3209558688.618299</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1270313179018267</v>
+        <v>0.1508151929662302</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0459375820455554</v>
+        <v>0.04852280457778643</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>84</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4415779748.306031</v>
+        <v>5081496618.512977</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1393615681845714</v>
+        <v>0.1073806954979456</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04364325477385089</v>
+        <v>0.03876081013119564</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>85</v>
+      </c>
+      <c r="J29" t="n">
+        <v>91</v>
+      </c>
+      <c r="K29" t="n">
+        <v>200.6323709616845</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1694129497.910464</v>
+        <v>2238610554.761796</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1120191875008557</v>
+        <v>0.1046129354456467</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02870528925111662</v>
+        <v>0.02562572252715006</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1262882501.230741</v>
+        <v>1155825722.042366</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0716805566990569</v>
+        <v>0.1065616535452888</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04515642083277518</v>
+        <v>0.04194959959381458</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1431083495.69411</v>
+        <v>1857940341.138722</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07413624508042786</v>
+        <v>0.09305936339445216</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02977915254798984</v>
+        <v>0.02973192015618328</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2986879939.411914</v>
+        <v>2908112766.403843</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1902104102474867</v>
+        <v>0.1490435275486185</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0570634071084018</v>
+        <v>0.05536459157680466</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>981510458.8636395</v>
+        <v>947079048.4226391</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1076827604017521</v>
+        <v>0.08397735559698612</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01789500730613521</v>
+        <v>0.01743035906151913</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>911417980.5034524</v>
+        <v>1178271774.01035</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07917305628696329</v>
+        <v>0.1099957309967178</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03987728226025476</v>
+        <v>0.04395328189843977</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2654818904.98176</v>
+        <v>2235345226.384427</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1119930619079662</v>
+        <v>0.1299778625319913</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02007350396613224</v>
+        <v>0.02788436518798532</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>86</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2133457134.737512</v>
+        <v>1945812906.031148</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09874272569822305</v>
+        <v>0.074724948407751</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03802110449283167</v>
+        <v>0.03755117024722747</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1489018226.789393</v>
+        <v>1397594966.726346</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1123914072268448</v>
+        <v>0.08577979751977587</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03250344622595977</v>
+        <v>0.03098421459986749</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1923142365.385612</v>
+        <v>1436473289.24926</v>
       </c>
       <c r="F39" t="n">
-        <v>0.131825534681772</v>
+        <v>0.1234819221298202</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0314285308395918</v>
+        <v>0.02093125119761097</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1671676714.147728</v>
+        <v>1782248252.002695</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1355135225089571</v>
+        <v>0.1578729273112515</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04199136133094496</v>
+        <v>0.05390104969041234</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2011451104.818583</v>
+        <v>2663551368.697464</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1149840680492699</v>
+        <v>0.1634538772743791</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02911400501673237</v>
+        <v>0.04652524056523477</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2695038615.985622</v>
+        <v>3411615750.88663</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08241618489241961</v>
+        <v>0.08208826212309094</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03254518844964695</v>
+        <v>0.03539247138453174</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>34</v>
+      </c>
+      <c r="J42" t="n">
+        <v>91</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2009191272.381992</v>
+        <v>2930304350.993568</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2029671593968502</v>
+        <v>0.1692247836510477</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02277980322611585</v>
+        <v>0.02533017139051997</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1487501546.012075</v>
+        <v>1752509676.872335</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08601919033208723</v>
+        <v>0.06873603168194402</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0365918926999542</v>
+        <v>0.03541835830068651</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1586201814.034628</v>
+        <v>1845905534.348543</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1249472081696928</v>
+        <v>0.1228661990706722</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04273335368135717</v>
+        <v>0.04937601140404318</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4962098205.041215</v>
+        <v>5000568192.147285</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1288632677527526</v>
+        <v>0.1386322990221227</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04245013724102475</v>
+        <v>0.04938168261315715</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>52</v>
+      </c>
+      <c r="J46" t="n">
+        <v>90</v>
+      </c>
+      <c r="K46" t="n">
+        <v>170.3431177445487</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3291587765.944014</v>
+        <v>3266587883.966305</v>
       </c>
       <c r="F47" t="n">
-        <v>0.160307334216422</v>
+        <v>0.1722483146283336</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04283174159339156</v>
+        <v>0.04306108559278238</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>41</v>
+      </c>
+      <c r="J47" t="n">
+        <v>89</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3759153171.738036</v>
+        <v>3764773551.092958</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06660767859229282</v>
+        <v>0.09429488508639608</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02635627703820314</v>
+        <v>0.03930719134933823</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>35</v>
+      </c>
+      <c r="J48" t="n">
+        <v>90</v>
+      </c>
+      <c r="K48" t="n">
+        <v>166.2355440303052</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1918754764.345595</v>
+        <v>1755150275.626311</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1812094536637339</v>
+        <v>0.1355976750779396</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0428800714321774</v>
+        <v>0.03916368883581832</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,16 +2197,25 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2860525840.523697</v>
+        <v>3685730768.01498</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1564299228495085</v>
+        <v>0.1316128923083276</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03545170502683586</v>
+        <v>0.03649481838734814</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>32</v>
+      </c>
+      <c r="J50" t="n">
+        <v>90</v>
+      </c>
+      <c r="K50" t="n">
+        <v>155.6710887176049</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1210954821.701407</v>
+        <v>1297542357.167949</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1458861573844567</v>
+        <v>0.1697297808058076</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04601644280737762</v>
+        <v>0.04340886285749448</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3967740529.691292</v>
+        <v>4285998075.555989</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1041158883917039</v>
+        <v>0.1133050749814807</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05726340617487588</v>
+        <v>0.04751334750757248</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>69</v>
+      </c>
+      <c r="J52" t="n">
+        <v>91</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2298,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3724921496.232974</v>
+        <v>2827587089.913747</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1413290686675527</v>
+        <v>0.1621949619073828</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03288308678033443</v>
+        <v>0.03348030934681381</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>11</v>
+      </c>
+      <c r="J53" t="n">
+        <v>90</v>
+      </c>
+      <c r="K53" t="n">
+        <v>86.22062053336172</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2341,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4771561649.498598</v>
+        <v>3532552398.90752</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1079283852171378</v>
+        <v>0.1131115961168485</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04163951228101671</v>
+        <v>0.04718437030656445</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>41</v>
+      </c>
+      <c r="J54" t="n">
+        <v>90</v>
+      </c>
+      <c r="K54" t="n">
+        <v>142.3364385924897</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2378,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4421027244.299087</v>
+        <v>3486595366.986495</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1575648226825955</v>
+        <v>0.1710359574647925</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02091003474699193</v>
+        <v>0.03096127794642224</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>41</v>
+      </c>
+      <c r="J55" t="n">
+        <v>91</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2407,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1565921697.651129</v>
+        <v>1258861041.791235</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1399479732043111</v>
+        <v>0.1355626859600917</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04767801759672566</v>
+        <v>0.04885445278482244</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2448,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3835820801.895333</v>
+        <v>2759926390.644593</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1460027733016013</v>
+        <v>0.1642158661726307</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02713650419481991</v>
+        <v>0.02540442422221846</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>34</v>
+      </c>
+      <c r="J57" t="n">
+        <v>89</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2483,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1902358512.331087</v>
+        <v>1191037625.930744</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1564809122643795</v>
+        <v>0.1791387170221346</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03296661333771779</v>
+        <v>0.0247576100298855</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2518,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4024866937.264512</v>
+        <v>4176053536.94695</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1141812003630675</v>
+        <v>0.09933735408428088</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03363832570569469</v>
+        <v>0.04806715775447112</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>44</v>
+      </c>
+      <c r="J59" t="n">
+        <v>91</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2584447978.929421</v>
+        <v>2978467585.430706</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1612049736662553</v>
+        <v>0.1618226457055235</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02909185797335488</v>
+        <v>0.02354275061658244</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>12</v>
+      </c>
+      <c r="J60" t="n">
+        <v>87</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3095081332.332874</v>
+        <v>3258025760.171792</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1509062844465483</v>
+        <v>0.1306251343883914</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02146460282920486</v>
+        <v>0.02755596399547341</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>79</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1447804954.11274</v>
+        <v>1560174950.131216</v>
       </c>
       <c r="F62" t="n">
-        <v>0.193149887034739</v>
+        <v>0.1827097980645291</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03689343396359696</v>
+        <v>0.0418947963753875</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4094448418.822012</v>
+        <v>3672577726.274304</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1018544751832659</v>
+        <v>0.1038127031143418</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03821007199787733</v>
+        <v>0.04377326794536898</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>45</v>
+      </c>
+      <c r="J63" t="n">
+        <v>90</v>
+      </c>
+      <c r="K63" t="n">
+        <v>141.5199914532388</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5088653423.26985</v>
+        <v>4736549650.389448</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1629929560653322</v>
+        <v>0.1834162815480239</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02202963106614872</v>
+        <v>0.02389219827474803</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>45</v>
+      </c>
+      <c r="J64" t="n">
+        <v>90</v>
+      </c>
+      <c r="K64" t="n">
+        <v>162.7953939741248</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4238594904.724977</v>
+        <v>4628923844.318362</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1337250906112561</v>
+        <v>0.1075111361436782</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02024435759295116</v>
+        <v>0.02297194912513212</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>73</v>
+      </c>
+      <c r="J65" t="n">
+        <v>90</v>
+      </c>
+      <c r="K65" t="n">
+        <v>174.1594007979577</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4507317689.323396</v>
+        <v>5251228911.886279</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1569144565625095</v>
+        <v>0.1395609619987422</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04539056101948604</v>
+        <v>0.04158035394581973</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>45</v>
+      </c>
+      <c r="J66" t="n">
+        <v>90</v>
+      </c>
+      <c r="K66" t="n">
+        <v>162.008400645956</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2275936007.029555</v>
+        <v>2201932561.32187</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09125894970802957</v>
+        <v>0.1003920912267728</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04135873537753302</v>
+        <v>0.05060189726991147</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2835,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6047237157.796841</v>
+        <v>5204264839.056376</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1564658111614885</v>
+        <v>0.1096381075521293</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03279272887461185</v>
+        <v>0.04625593899578705</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>45</v>
+      </c>
+      <c r="J68" t="n">
+        <v>91</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2362,17 +2876,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1524671983.695926</v>
+        <v>1861125242.951777</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1345818716882474</v>
+        <v>0.1342662660935257</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03722015151696573</v>
+        <v>0.03816670775329221</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2911,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3161427009.669141</v>
+        <v>3009320751.120008</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09448788956999672</v>
+        <v>0.07158711598497609</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03384966959178936</v>
+        <v>0.04544196716193855</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>81</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3809404633.965511</v>
+        <v>4081437338.935779</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1224278563421549</v>
+        <v>0.1183183229376342</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02748704662211777</v>
+        <v>0.02800890719908777</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>75</v>
+      </c>
+      <c r="J71" t="n">
+        <v>91</v>
+      </c>
+      <c r="K71" t="n">
+        <v>176.4160893267602</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1387737789.541406</v>
+        <v>1664866829.071929</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1068770900154085</v>
+        <v>0.104812383990371</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03674447069553772</v>
+        <v>0.04116129506659143</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3296157038.680168</v>
+        <v>2536990515.087466</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0755790676354369</v>
+        <v>0.09048304381483362</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04049701641236896</v>
+        <v>0.0504657962122667</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>6</v>
+      </c>
+      <c r="J73" t="n">
+        <v>71</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3070404603.87149</v>
+        <v>3684760882.926513</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1754943664883384</v>
+        <v>0.137945261520735</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0350877686593559</v>
+        <v>0.03193237181820686</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>28</v>
+      </c>
+      <c r="J74" t="n">
+        <v>91</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2188942839.205542</v>
+        <v>1787768534.942136</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1136082409295123</v>
+        <v>0.1483954712689274</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0284333790644615</v>
+        <v>0.03262846884581937</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3746770500.038342</v>
+        <v>4677822358.100981</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1033456889363136</v>
+        <v>0.08117293627826647</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02316365596734106</v>
+        <v>0.03089429409900695</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>42</v>
+      </c>
+      <c r="J76" t="n">
+        <v>90</v>
+      </c>
+      <c r="K76" t="n">
+        <v>139.1033319795536</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1395957089.51182</v>
+        <v>1812065775.272388</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1340318587930322</v>
+        <v>0.1445117713213594</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02572503112545624</v>
+        <v>0.03049452958308775</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3189,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4351459814.606856</v>
+        <v>3849703883.328853</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09763799498729903</v>
+        <v>0.08882360275699329</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04916157069645095</v>
+        <v>0.04005986268197789</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>45</v>
+      </c>
+      <c r="J78" t="n">
+        <v>91</v>
+      </c>
+      <c r="K78" t="n">
+        <v>179.3096897149373</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1541486616.996208</v>
+        <v>1306831784.521869</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1740854007199767</v>
+        <v>0.1677908212167529</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03477418796032131</v>
+        <v>0.02879532803105471</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3267,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5287137425.080709</v>
+        <v>3480415359.003424</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1029504467009996</v>
+        <v>0.1063823068025481</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03868925873916009</v>
+        <v>0.03828761359962284</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>43</v>
+      </c>
+      <c r="J80" t="n">
+        <v>91</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,17 +3302,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5090116868.9547</v>
+        <v>4402208468.246457</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1291260962651574</v>
+        <v>0.1228795981413792</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02758251633107367</v>
+        <v>0.02572368698440525</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>41</v>
+      </c>
+      <c r="J81" t="n">
+        <v>91</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3692233441.38686</v>
+        <v>4690290059.750735</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2018416979465744</v>
+        <v>0.1519257807052162</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01875790270850245</v>
+        <v>0.02294332620337671</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>58</v>
+      </c>
+      <c r="J82" t="n">
+        <v>91</v>
+      </c>
+      <c r="K82" t="n">
+        <v>179.2821286618159</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1817070530.099859</v>
+        <v>1571640050.41903</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1427256898536968</v>
+        <v>0.1462118903129759</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03640344183353228</v>
+        <v>0.04482336082794349</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1568443316.277085</v>
+        <v>1586201020.309542</v>
       </c>
       <c r="F84" t="n">
-        <v>0.100055081676668</v>
+        <v>0.1187779658702301</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0319143471869212</v>
+        <v>0.04047046687321206</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3115219407.877516</v>
+        <v>2767419698.265996</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1271523999329329</v>
+        <v>0.1696485043200206</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0475203636494795</v>
+        <v>0.03517160531650754</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>15</v>
+      </c>
+      <c r="J85" t="n">
+        <v>88</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2284674108.936049</v>
+        <v>2678972046.79854</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1645660664393155</v>
+        <v>0.117782616688728</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02212804906046391</v>
+        <v>0.02240166690733434</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1332310589.846006</v>
+        <v>1456341593.790018</v>
       </c>
       <c r="F87" t="n">
-        <v>0.142454230905842</v>
+        <v>0.1510056201220975</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02998181097439179</v>
+        <v>0.03496800429425749</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2858046424.238377</v>
+        <v>3088036005.528236</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1141753694571486</v>
+        <v>0.1687801308966749</v>
       </c>
       <c r="G88" t="n">
-        <v>0.029137657579152</v>
+        <v>0.02587413002577052</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
+        <v>86</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2349386642.297357</v>
+        <v>3232465684.718722</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1471816089206866</v>
+        <v>0.09717549408386719</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03278642100566492</v>
+        <v>0.03039004063721732</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>9</v>
+      </c>
+      <c r="J89" t="n">
+        <v>79</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1768210120.40973</v>
+        <v>1440870144.172177</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08336397660277731</v>
+        <v>0.1216575657977119</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04136559934961356</v>
+        <v>0.04571209324720233</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1591000737.900702</v>
+        <v>1266591687.197949</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1323496293892395</v>
+        <v>0.1890134169971871</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05847389566431514</v>
+        <v>0.04070279945843745</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2961392933.557059</v>
+        <v>2427605845.775485</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08302248724382912</v>
+        <v>0.08308156744526826</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03975114973527364</v>
+        <v>0.03769335025119502</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4280848526.504505</v>
+        <v>3273237525.138969</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1038676232144848</v>
+        <v>0.09705263617084536</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05131497230849072</v>
+        <v>0.04835107570667067</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>41</v>
+      </c>
+      <c r="J93" t="n">
+        <v>91</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1975381055.922696</v>
+        <v>1698274392.334447</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1192680800756506</v>
+        <v>0.1620953650627405</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03944704948680737</v>
+        <v>0.03021158432159916</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2144608792.438757</v>
+        <v>2381000754.188449</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09002332819923148</v>
+        <v>0.1028671002182635</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04423352714707601</v>
+        <v>0.03995519724902155</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1510369368.266523</v>
+        <v>1814541330.326808</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1199767393846494</v>
+        <v>0.0941515641062923</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03852355464118284</v>
+        <v>0.03063821121712064</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3358473294.64213</v>
+        <v>4872432078.106408</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1279422187013283</v>
+        <v>0.1310800284554625</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01986028594886712</v>
+        <v>0.02905134321592685</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>43</v>
+      </c>
+      <c r="J97" t="n">
+        <v>91</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3127002073.836493</v>
+        <v>3940479256.5687</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1048888771422054</v>
+        <v>0.1158022668476653</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02756053558362257</v>
+        <v>0.03199689559819815</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>19</v>
+      </c>
+      <c r="J98" t="n">
+        <v>91</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2548564725.743541</v>
+        <v>2832269013.824883</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0962285780619189</v>
+        <v>0.1065832901492249</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02950928699567201</v>
+        <v>0.03034447094917219</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>62</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3195304995.266566</v>
+        <v>4466775756.381051</v>
       </c>
       <c r="F100" t="n">
-        <v>0.130662835739781</v>
+        <v>0.1221963488823757</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0220971325891474</v>
+        <v>0.02081619822084425</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>36</v>
+      </c>
+      <c r="J100" t="n">
+        <v>91</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3552440214.662385</v>
+        <v>3353395551.64468</v>
       </c>
       <c r="F101" t="n">
-        <v>0.169573281329563</v>
+        <v>0.1656076636908572</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05211391330840439</v>
+        <v>0.05550456044971782</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>5</v>
+      </c>
+      <c r="J101" t="n">
+        <v>90</v>
+      </c>
+      <c r="K101" t="n">
+        <v>120.8354842511033</v>
       </c>
     </row>
   </sheetData>
